--- a/data/Instrumentation Amount Benchmark.xlsx
+++ b/data/Instrumentation Amount Benchmark.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27426"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -129,6 +129,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF77200"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -163,7 +168,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="F77200"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -370,11 +375,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1957947648"/>
-        <c:axId val="1894466688"/>
+        <c:axId val="-1480871808"/>
+        <c:axId val="-1480868416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1957947648"/>
+        <c:axId val="-1480871808"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -479,12 +484,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1894466688"/>
+        <c:crossAx val="-1480868416"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1894466688"/>
+        <c:axId val="-1480868416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -591,7 +596,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1957947648"/>
+        <c:crossAx val="-1480871808"/>
         <c:crossesAt val="1.0E-5"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
